--- a/data/Subset2_WithDialogActs/TalkBack.Year1.Benson.Spring.020520.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year1.Benson.Spring.020520.xlsx_with_dialog_acts.xlsx
@@ -639,12 +639,12 @@
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1059,12 +1059,12 @@
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -1903,12 +1903,12 @@
       <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2029,12 +2029,12 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2323,12 +2323,12 @@
       <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2785,12 +2785,12 @@
       <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -2911,12 +2911,12 @@
       <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3037,12 +3037,12 @@
       <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -3247,12 +3247,12 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3625,12 +3625,12 @@
       <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4343,12 +4343,12 @@
       <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4385,12 +4385,12 @@
       <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -4721,12 +4721,12 @@
       <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -4763,12 +4763,12 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4805,12 +4805,12 @@
       <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -5351,12 +5351,12 @@
       <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -5771,12 +5771,12 @@
       <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -5813,12 +5813,12 @@
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6363,12 +6363,12 @@
       <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -6573,12 +6573,12 @@
       <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -6825,12 +6825,12 @@
       <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -6993,12 +6993,12 @@
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -7035,12 +7035,12 @@
       <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7543,12 +7543,12 @@
       <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -8047,12 +8047,12 @@
       <c r="H181" t="inlineStr"/>
       <c r="I181" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -8337,12 +8337,12 @@
       <c r="H188" t="inlineStr"/>
       <c r="I188" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -8463,12 +8463,12 @@
       <c r="H191" t="inlineStr"/>
       <c r="I191" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -8971,12 +8971,12 @@
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -10919,12 +10919,12 @@
       </c>
       <c r="I249" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J249" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -11003,12 +11003,12 @@
       <c r="H251" t="inlineStr"/>
       <c r="I251" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J251" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -11427,12 +11427,12 @@
       <c r="H261" t="inlineStr"/>
       <c r="I261" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J261" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -11725,12 +11725,12 @@
       <c r="H268" t="inlineStr"/>
       <c r="I268" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J268" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11851,12 +11851,12 @@
       <c r="H271" t="inlineStr"/>
       <c r="I271" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J271" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -12321,12 +12321,12 @@
       <c r="H282" t="inlineStr"/>
       <c r="I282" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J282" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12535,12 +12535,12 @@
       <c r="H287" t="inlineStr"/>
       <c r="I287" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J287" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13131,12 +13131,12 @@
       <c r="H301" t="inlineStr"/>
       <c r="I301" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J301" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13215,12 +13215,12 @@
       </c>
       <c r="I303" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J303" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -15159,12 +15159,12 @@
       <c r="H349" t="inlineStr"/>
       <c r="I349" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J349" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -15453,12 +15453,12 @@
       <c r="H356" t="inlineStr"/>
       <c r="I356" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J356" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -15621,12 +15621,12 @@
       <c r="H360" t="inlineStr"/>
       <c r="I360" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J360" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -15747,12 +15747,12 @@
       </c>
       <c r="I363" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J363" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -15789,12 +15789,12 @@
       <c r="H364" t="inlineStr"/>
       <c r="I364" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J364" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -16083,12 +16083,12 @@
       <c r="H371" t="inlineStr"/>
       <c r="I371" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J371" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -16125,12 +16125,12 @@
       <c r="H372" t="inlineStr"/>
       <c r="I372" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J372" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -16293,12 +16293,12 @@
       <c r="H376" t="inlineStr"/>
       <c r="I376" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J376" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -16335,12 +16335,12 @@
       <c r="H377" t="inlineStr"/>
       <c r="I377" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J377" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -16461,12 +16461,12 @@
       <c r="H380" t="inlineStr"/>
       <c r="I380" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J380" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -16713,12 +16713,12 @@
       <c r="H386" t="inlineStr"/>
       <c r="I386" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J386" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -16881,12 +16881,12 @@
       <c r="H390" t="inlineStr"/>
       <c r="I390" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J390" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -17221,12 +17221,12 @@
       </c>
       <c r="I398" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J398" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -17305,12 +17305,12 @@
       <c r="H400" t="inlineStr"/>
       <c r="I400" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J400" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -17431,12 +17431,12 @@
       </c>
       <c r="I403" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J403" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -17683,12 +17683,12 @@
       </c>
       <c r="I409" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J409" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -17855,12 +17855,12 @@
       <c r="H413" t="inlineStr"/>
       <c r="I413" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J413" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -18069,12 +18069,12 @@
       <c r="H418" t="inlineStr"/>
       <c r="I418" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J418" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -18245,12 +18245,12 @@
       </c>
       <c r="I422" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J422" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -18329,12 +18329,12 @@
       <c r="H424" t="inlineStr"/>
       <c r="I424" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J424" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -18413,12 +18413,12 @@
       <c r="H426" t="inlineStr"/>
       <c r="I426" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J426" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -18581,12 +18581,12 @@
       <c r="H430" t="inlineStr"/>
       <c r="I430" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J430" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -18791,12 +18791,12 @@
       <c r="H435" t="inlineStr"/>
       <c r="I435" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J435" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -19257,12 +19257,12 @@
       </c>
       <c r="I446" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J446" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -20055,12 +20055,12 @@
       <c r="H465" t="inlineStr"/>
       <c r="I465" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J465" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -20521,12 +20521,12 @@
       <c r="H476" t="inlineStr"/>
       <c r="I476" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J476" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -20647,12 +20647,12 @@
       <c r="H479" t="inlineStr"/>
       <c r="I479" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J479" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -21823,12 +21823,12 @@
       </c>
       <c r="I507" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J507" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -21865,12 +21865,12 @@
       </c>
       <c r="I508" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J508" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -22033,12 +22033,12 @@
       </c>
       <c r="I512" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J512" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -23125,12 +23125,12 @@
       </c>
       <c r="I538" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J538" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -23251,12 +23251,12 @@
       </c>
       <c r="I541" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J541" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -23293,12 +23293,12 @@
       </c>
       <c r="I542" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J542" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -23335,12 +23335,12 @@
       </c>
       <c r="I543" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J543" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -23377,12 +23377,12 @@
       </c>
       <c r="I544" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J544" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -23545,12 +23545,12 @@
       </c>
       <c r="I548" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J548" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -23923,12 +23923,12 @@
       </c>
       <c r="I557" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J557" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -24049,12 +24049,12 @@
       </c>
       <c r="I560" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J560" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -24343,12 +24343,12 @@
       <c r="H567" t="inlineStr"/>
       <c r="I567" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J567" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -24385,12 +24385,12 @@
       <c r="H568" t="inlineStr"/>
       <c r="I568" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J568" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -24721,12 +24721,12 @@
       <c r="H576" t="inlineStr"/>
       <c r="I576" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J576" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -25225,12 +25225,12 @@
       <c r="H588" t="inlineStr"/>
       <c r="I588" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J588" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -25435,12 +25435,12 @@
       </c>
       <c r="I593" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J593" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -25985,12 +25985,12 @@
       </c>
       <c r="I606" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J606" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -26153,12 +26153,12 @@
       <c r="H610" t="inlineStr"/>
       <c r="I610" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J610" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -26237,12 +26237,12 @@
       <c r="H612" t="inlineStr"/>
       <c r="I612" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J612" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -26447,12 +26447,12 @@
       <c r="H617" t="inlineStr"/>
       <c r="I617" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J617" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -26573,12 +26573,12 @@
       <c r="H620" t="inlineStr"/>
       <c r="I620" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J620" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -26615,12 +26615,12 @@
       <c r="H621" t="inlineStr"/>
       <c r="I621" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J621" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
